--- a/database/transaction import/TestExcel.xlsx
+++ b/database/transaction import/TestExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3101683c02797c76/Documents/GitHub/Splitwise-Clone-Project/database/transaction import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86EA4F1E-DD7B-45A2-9943-AE841007D7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{86EA4F1E-DD7B-45A2-9943-AE841007D7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A29A3DE-5AAB-4129-B321-F8E854D601D9}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="6120" windowWidth="11712" windowHeight="6216" xr2:uid="{2C03696F-E8BB-4168-ACD4-85595AE8B2F6}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{2C03696F-E8BB-4168-ACD4-85595AE8B2F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>group_name</t>
   </si>
@@ -77,12 +77,6 @@
     <t>TestGroup1</t>
   </si>
   <si>
-    <t>Rojan,Niloo,Mahshid</t>
-  </si>
-  <si>
-    <t>Rojan</t>
-  </si>
-  <si>
     <t>Food</t>
   </si>
   <si>
@@ -95,18 +89,12 @@
     <t>TestGroup2</t>
   </si>
   <si>
-    <t>Rojan,Niloo,Mohadeseh,Fatemeh</t>
-  </si>
-  <si>
     <t>Niloo</t>
   </si>
   <si>
     <t>Rent</t>
   </si>
   <si>
-    <t>25-07-2024</t>
-  </si>
-  <si>
     <t>July rent</t>
   </si>
   <si>
@@ -116,19 +104,34 @@
     <t>USD</t>
   </si>
   <si>
-    <t>Rojan,Mahshid,Fatemeh</t>
-  </si>
-  <si>
     <t>Mahshid</t>
   </si>
   <si>
     <t>Travel</t>
   </si>
   <si>
-    <t>13-11-2024</t>
-  </si>
-  <si>
-    <t>{"Rojan":2,"Mahshid":3,"Fatemeh":1}</t>
+    <t>25/07/2024</t>
+  </si>
+  <si>
+    <t>13/11/2024</t>
+  </si>
+  <si>
+    <t>TestGroup3</t>
+  </si>
+  <si>
+    <t>Roj,Niloo,Mahshid</t>
+  </si>
+  <si>
+    <t>Roj,Niloo,Mohadeseh,Fatemeh</t>
+  </si>
+  <si>
+    <t>Roj</t>
+  </si>
+  <si>
+    <t>Roj,Mahshid,Fatemeh</t>
+  </si>
+  <si>
+    <t>{"Roj":2,"Mahshid":3,"Fatemeh":1}</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,83 +552,83 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>400</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1">
         <v>45658</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>800</v>
       </c>
       <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>500</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
